--- a/R/Results/BSAI_mse_results.xlsx
+++ b/R/Results/BSAI_mse_results.xlsx
@@ -379,7 +379,7 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>mse3b SS-OM, SS-Fixed M Tier 3 EM - no cap</t>
+          <t>mse3b MS-OM, SS-Fixed M Tier 3 EM - no cap</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
@@ -404,7 +404,7 @@
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>mse4b MS-OM, SS-Fixed M Tier 3 EM - no cap</t>
+          <t>mse4b SS-OM, SS-Fixed M Tier 3 EM - no cap</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
@@ -540,7 +540,7 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>mse3b SS-OM, SS-Fixed M Tier 3 EM - no cap</t>
+          <t>mse3b MS-OM, SS-Fixed M Tier 3 EM - no cap</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
@@ -565,7 +565,7 @@
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>mse4b MS-OM, SS-Fixed M Tier 3 EM - no cap</t>
+          <t>mse4b SS-OM, SS-Fixed M Tier 3 EM - no cap</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
@@ -701,7 +701,7 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>mse3b SS-OM, SS-Fixed M Tier 3 EM - no cap</t>
+          <t>mse3b MS-OM, SS-Fixed M Tier 3 EM - no cap</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
@@ -726,7 +726,7 @@
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>mse4b MS-OM, SS-Fixed M Tier 3 EM - no cap</t>
+          <t>mse4b SS-OM, SS-Fixed M Tier 3 EM - no cap</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
@@ -862,7 +862,7 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>mse3b SS-OM, SS-Fixed M Tier 3 EM - no cap</t>
+          <t>mse3b MS-OM, SS-Fixed M Tier 3 EM - no cap</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
@@ -887,7 +887,7 @@
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>mse4b MS-OM, SS-Fixed M Tier 3 EM - no cap</t>
+          <t>mse4b SS-OM, SS-Fixed M Tier 3 EM - no cap</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
@@ -1023,7 +1023,7 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>mse3b SS-OM, SS-Fixed M Tier 3 EM - no cap</t>
+          <t>mse3b MS-OM, SS-Fixed M Tier 3 EM - no cap</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
@@ -1048,7 +1048,7 @@
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>mse4b MS-OM, SS-Fixed M Tier 3 EM - no cap</t>
+          <t>mse4b SS-OM, SS-Fixed M Tier 3 EM - no cap</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">

--- a/R/Results/BSAI_mse_results.xlsx
+++ b/R/Results/BSAI_mse_results.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -364,52 +364,57 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>mse1 MS-OM, SS-Est M Tier 3 EM</t>
+          <t>MS-OM, Est M-Cap</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>mse3 MS-OM, SS-Fixed M Tier 3 EM</t>
+          <t>MS-OM, Fix M-Cap</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>mse1b MS-OM, SS-Est M Tier 3 EM - no cap</t>
+          <t>MS-OM, Est M</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>mse3b MS-OM, SS-Fixed M Tier 3 EM - no cap</t>
+          <t>MS-OM, Fix M</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>mse5 MS-OM, SS-Fixed M No Catch EM</t>
+          <t xml:space="preserve">MS-OM, Fix M-No catch </t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>mse2 SS-OM, SS-Est M Tier 3 EM</t>
+          <t>MS-OM, Est M-No catch</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>mse4 SS-OM, SS-Fixed M Tier 3 EM</t>
+          <t>SS-OM, Est M-Cap</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>mse2b SS-OM, SS-Est M Tier 3 EM - no cap</t>
+          <t>SS-OM, Fix M-Cap</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>mse4b SS-OM, SS-Fixed M Tier 3 EM - no cap</t>
+          <t>SS-OM, Est M</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>mse6 SS-OM, SS-Fixed M No Catch EM</t>
+          <t>SS-OM, Fix M</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>SS-OM, Fix M-No catch</t>
         </is>
       </c>
     </row>
@@ -430,18 +435,21 @@
         <v>1</v>
       </c>
       <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
         <v>1488316.949639398</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>1358070.891862691</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>2495788.902400283</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>1580710.76761169</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>1</v>
       </c>
     </row>
@@ -462,18 +470,21 @@
         <v>1</v>
       </c>
       <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
         <v>95569.80440580689</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>92822.01376787381</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>90282.87646281534</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>96111.64044945706</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>1</v>
       </c>
     </row>
@@ -494,18 +505,21 @@
         <v>1</v>
       </c>
       <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
         <v>38383.24820109584</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>30574.12099322742</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>37255.28814463315</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>30147.67746485224</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>1</v>
       </c>
     </row>
@@ -516,7 +530,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -525,52 +539,57 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>mse1 MS-OM, SS-Est M Tier 3 EM</t>
+          <t>MS-OM, Est M-Cap</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>mse3 MS-OM, SS-Fixed M Tier 3 EM</t>
+          <t>MS-OM, Fix M-Cap</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>mse1b MS-OM, SS-Est M Tier 3 EM - no cap</t>
+          <t>MS-OM, Est M</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>mse3b MS-OM, SS-Fixed M Tier 3 EM - no cap</t>
+          <t>MS-OM, Fix M</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>mse5 MS-OM, SS-Fixed M No Catch EM</t>
+          <t xml:space="preserve">MS-OM, Fix M-No catch </t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>mse2 SS-OM, SS-Est M Tier 3 EM</t>
+          <t>MS-OM, Est M-No catch</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>mse4 SS-OM, SS-Fixed M Tier 3 EM</t>
+          <t>SS-OM, Est M-Cap</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>mse2b SS-OM, SS-Est M Tier 3 EM - no cap</t>
+          <t>SS-OM, Fix M-Cap</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>mse4b SS-OM, SS-Fixed M Tier 3 EM - no cap</t>
+          <t>SS-OM, Est M</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>mse6 SS-OM, SS-Fixed M No Catch EM</t>
+          <t>SS-OM, Fix M</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>SS-OM, Fix M-No catch</t>
         </is>
       </c>
     </row>
@@ -591,18 +610,21 @@
         <v>0</v>
       </c>
       <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
         <v>3300.762903353826</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>10316.30505990453</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>403747.1358899369</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>66462.08440908452</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>0</v>
       </c>
     </row>
@@ -623,18 +645,21 @@
         <v>0</v>
       </c>
       <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
         <v>3027.751203249381</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>2849.28395079731</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>2851.663956990306</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>2930.457475498707</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>0</v>
       </c>
     </row>
@@ -655,18 +680,21 @@
         <v>0</v>
       </c>
       <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
         <v>1306.618680137909</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>727.6547108213337</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>1233.443275249379</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>725.4250216489661</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>0</v>
       </c>
     </row>
@@ -677,7 +705,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -686,52 +714,57 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>mse1 MS-OM, SS-Est M Tier 3 EM</t>
+          <t>MS-OM, Est M-Cap</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>mse3 MS-OM, SS-Fixed M Tier 3 EM</t>
+          <t>MS-OM, Fix M-Cap</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>mse1b MS-OM, SS-Est M Tier 3 EM - no cap</t>
+          <t>MS-OM, Est M</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>mse3b MS-OM, SS-Fixed M Tier 3 EM - no cap</t>
+          <t>MS-OM, Fix M</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>mse5 MS-OM, SS-Fixed M No Catch EM</t>
+          <t xml:space="preserve">MS-OM, Fix M-No catch </t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>mse2 SS-OM, SS-Est M Tier 3 EM</t>
+          <t>MS-OM, Est M-No catch</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>mse4 SS-OM, SS-Fixed M Tier 3 EM</t>
+          <t>SS-OM, Est M-Cap</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>mse2b SS-OM, SS-Est M Tier 3 EM - no cap</t>
+          <t>SS-OM, Fix M-Cap</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>mse4b SS-OM, SS-Fixed M Tier 3 EM - no cap</t>
+          <t>SS-OM, Est M</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>mse6 SS-OM, SS-Fixed M No Catch EM</t>
+          <t>SS-OM, Fix M</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>SS-OM, Fix M-No catch</t>
         </is>
       </c>
     </row>
@@ -752,18 +785,21 @@
         <v>3.10900150439387</v>
       </c>
       <c r="F2">
+        <v>3.032168986185411</v>
+      </c>
+      <c r="G2">
         <v>2.283045287646738</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>1.96181450595922</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>1.495340508402954</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>1.513084760681352</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>3.272387509952669</v>
       </c>
     </row>
@@ -784,18 +820,21 @@
         <v>3.086876174519032</v>
       </c>
       <c r="F3">
+        <v>3.03830435531285</v>
+      </c>
+      <c r="G3">
         <v>1.349157639071401</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>1.47074531989259</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>1.422802684301418</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>1.309119065671469</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>3.069199837601692</v>
       </c>
     </row>
@@ -816,18 +855,21 @@
         <v>3.240860372591858</v>
       </c>
       <c r="F4">
+        <v>3.256339129533838</v>
+      </c>
+      <c r="G4">
         <v>1.490914857580467</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>1.780278602123323</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>1.4559918269725</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>1.637616574464457</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>3.62864756345205</v>
       </c>
     </row>
@@ -838,7 +880,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -847,52 +889,57 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>mse1 MS-OM, SS-Est M Tier 3 EM</t>
+          <t>MS-OM, Est M-Cap</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>mse3 MS-OM, SS-Fixed M Tier 3 EM</t>
+          <t>MS-OM, Fix M-Cap</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>mse1b MS-OM, SS-Est M Tier 3 EM - no cap</t>
+          <t>MS-OM, Est M</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>mse3b MS-OM, SS-Fixed M Tier 3 EM - no cap</t>
+          <t>MS-OM, Fix M</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>mse5 MS-OM, SS-Fixed M No Catch EM</t>
+          <t xml:space="preserve">MS-OM, Fix M-No catch </t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>mse2 SS-OM, SS-Est M Tier 3 EM</t>
+          <t>MS-OM, Est M-No catch</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>mse4 SS-OM, SS-Fixed M Tier 3 EM</t>
+          <t>SS-OM, Est M-Cap</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>mse2b SS-OM, SS-Est M Tier 3 EM - no cap</t>
+          <t>SS-OM, Fix M-Cap</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>mse4b SS-OM, SS-Fixed M Tier 3 EM - no cap</t>
+          <t>SS-OM, Est M</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>mse6 SS-OM, SS-Fixed M No Catch EM</t>
+          <t>SS-OM, Fix M</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>SS-OM, Fix M-No catch</t>
         </is>
       </c>
     </row>
@@ -919,12 +966,15 @@
         <v>0</v>
       </c>
       <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
         <v>0.0009302325581395349</v>
       </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
       <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
         <v>0</v>
       </c>
     </row>
@@ -959,6 +1009,9 @@
       <c r="J3">
         <v>0</v>
       </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4">
@@ -989,6 +1042,9 @@
         <v>0</v>
       </c>
       <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
         <v>0</v>
       </c>
     </row>
@@ -999,7 +1055,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1008,52 +1064,57 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>mse1 MS-OM, SS-Est M Tier 3 EM</t>
+          <t>MS-OM, Est M-Cap</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>mse3 MS-OM, SS-Fixed M Tier 3 EM</t>
+          <t>MS-OM, Fix M-Cap</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>mse1b MS-OM, SS-Est M Tier 3 EM - no cap</t>
+          <t>MS-OM, Est M</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>mse3b MS-OM, SS-Fixed M Tier 3 EM - no cap</t>
+          <t>MS-OM, Fix M</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>mse5 MS-OM, SS-Fixed M No Catch EM</t>
+          <t xml:space="preserve">MS-OM, Fix M-No catch </t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>mse2 SS-OM, SS-Est M Tier 3 EM</t>
+          <t>MS-OM, Est M-No catch</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>mse4 SS-OM, SS-Fixed M Tier 3 EM</t>
+          <t>SS-OM, Est M-Cap</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>mse2b SS-OM, SS-Est M Tier 3 EM - no cap</t>
+          <t>SS-OM, Fix M-Cap</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>mse4b SS-OM, SS-Fixed M Tier 3 EM - no cap</t>
+          <t>SS-OM, Est M</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>mse6 SS-OM, SS-Fixed M No Catch EM</t>
+          <t>SS-OM, Fix M</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>SS-OM, Fix M-No catch</t>
         </is>
       </c>
     </row>
@@ -1074,18 +1135,21 @@
         <v>700615111624.9243</v>
       </c>
       <c r="F2">
+        <v>274845876969.5114</v>
+      </c>
+      <c r="G2">
         <v>36010163834.85198</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>2415200065467.974</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>7535460652.429159</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>1449334014270.058</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>11265081380543.52</v>
       </c>
     </row>
@@ -1106,18 +1170,21 @@
         <v>1806866728.603179</v>
       </c>
       <c r="F3">
+        <v>1231599335.714743</v>
+      </c>
+      <c r="G3">
         <v>23933650.06564285</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>24076161.75144834</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>23737526.82329159</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>29383133.39974889</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>2812037215.693581</v>
       </c>
     </row>
@@ -1138,18 +1205,21 @@
         <v>1798911727.073543</v>
       </c>
       <c r="F4">
+        <v>1875884643.122609</v>
+      </c>
+      <c r="G4">
         <v>28924675.57041781</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>169105991.2425857</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>27250518.61938209</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>178685094.5935831</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>1021505488.524566</v>
       </c>
     </row>
